--- a/media/spreadsheets/OCamlComparison.xlsx
+++ b/media/spreadsheets/OCamlComparison.xlsx
@@ -45,22 +45,22 @@
     <t>C++</t>
   </si>
   <si>
-    <t>Tag/Spec</t>
-  </si>
-  <si>
-    <t>Tag/Uni</t>
-  </si>
-  <si>
-    <t>Kind/Spec</t>
-  </si>
-  <si>
     <t>OCaml</t>
   </si>
   <si>
-    <t>Open/Spec</t>
+    <t>Kind/Special</t>
   </si>
   <si>
-    <t>Open/Uni</t>
+    <t>Tag/Special</t>
+  </si>
+  <si>
+    <t>Tag/Unified</t>
+  </si>
+  <si>
+    <t>Open/Special</t>
+  </si>
+  <si>
+    <t>Open/Unifie</t>
   </si>
 </sst>
 </file>
@@ -278,19 +278,19 @@
                   <c:v>OCaml</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Kind/Spec</c:v>
+                  <c:v>Kind/Special</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Tag/Spec</c:v>
+                  <c:v>Tag/Special</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Tag/Uni</c:v>
+                  <c:v>Tag/Unified</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Open/Spec</c:v>
+                  <c:v>Open/Special</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Open/Uni</c:v>
+                  <c:v>Open/Unifie</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -332,11 +332,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155449216"/>
-        <c:axId val="158818304"/>
+        <c:axId val="156232320"/>
+        <c:axId val="161693056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155449216"/>
+        <c:axId val="156232320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -371,7 +371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158818304"/>
+        <c:crossAx val="161693056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -379,7 +379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158818304"/>
+        <c:axId val="161693056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155449216"/>
+        <c:crossAx val="156232320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -591,19 +591,19 @@
                   <c:v>OCaml</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Kind/Spec</c:v>
+                  <c:v>Kind/Special</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Tag/Spec</c:v>
+                  <c:v>Tag/Special</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Tag/Uni</c:v>
+                  <c:v>Tag/Unified</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Open/Spec</c:v>
+                  <c:v>Open/Special</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Open/Uni</c:v>
+                  <c:v>Open/Unifie</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -645,11 +645,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="158841088"/>
-        <c:axId val="158855552"/>
+        <c:axId val="159570176"/>
+        <c:axId val="159719808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158841088"/>
+        <c:axId val="159570176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158855552"/>
+        <c:crossAx val="159719808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -692,7 +692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158855552"/>
+        <c:axId val="159719808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.000000000000001E-2"/>
@@ -730,7 +730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158841088"/>
+        <c:crossAx val="159570176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -812,19 +812,19 @@
                   <c:v>OCaml</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Kind/Spec</c:v>
+                  <c:v>Kind/Special</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Tag/Spec</c:v>
+                  <c:v>Tag/Special</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Tag/Uni</c:v>
+                  <c:v>Tag/Unified</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Open/Spec</c:v>
+                  <c:v>Open/Special</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Open/Uni</c:v>
+                  <c:v>Open/Unifie</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -898,19 +898,19 @@
                   <c:v>OCaml</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Kind/Spec</c:v>
+                  <c:v>Kind/Special</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Tag/Spec</c:v>
+                  <c:v>Tag/Special</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Tag/Uni</c:v>
+                  <c:v>Tag/Unified</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Open/Spec</c:v>
+                  <c:v>Open/Special</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Open/Uni</c:v>
+                  <c:v>Open/Unifie</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -952,11 +952,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76230016"/>
-        <c:axId val="103498880"/>
+        <c:axId val="159745920"/>
+        <c:axId val="159748096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76230016"/>
+        <c:axId val="159745920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +991,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103498880"/>
+        <c:crossAx val="159748096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -999,7 +999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103498880"/>
+        <c:axId val="159748096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1036,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76230016"/>
+        <c:crossAx val="159745920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,16 +1492,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>

--- a/media/spreadsheets/OCamlComparison.xlsx
+++ b/media/spreadsheets/OCamlComparison.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2012-04-12" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
   <si>
     <t>P</t>
   </si>
@@ -61,6 +61,60 @@
   </si>
   <si>
     <t>Open/Unifie</t>
+  </si>
+  <si>
+    <t>cmp-fwd-special-kind-seq.exe</t>
+  </si>
+  <si>
+    <t>cmp-non-special-kind-seq.exe</t>
+  </si>
+  <si>
+    <t>cmp-non-special-poly-seq.exe</t>
+  </si>
+  <si>
+    <t>cmp_haskell.exe</t>
+  </si>
+  <si>
+    <t>cmp_ocaml.exe</t>
+  </si>
+  <si>
+    <t>Haskell</t>
+  </si>
+  <si>
+    <t>cmp-fwd-generic-kind-seq.exe</t>
+  </si>
+  <si>
+    <t>cmp-non-generic-kind-seq.exe</t>
+  </si>
+  <si>
+    <t>cmp-non-generic-poly-seq.exe</t>
+  </si>
+  <si>
+    <t>cmp-32-fwd-generic-knfw-SEQ.exe</t>
+  </si>
+  <si>
+    <t>cmp-32-fwd-special-knfw-SEQ.exe</t>
+  </si>
+  <si>
+    <t>cmp-32-non-generic-kind-SEQ.exe</t>
+  </si>
+  <si>
+    <t>cmp-32-non-generic-poly-SEQ.exe</t>
+  </si>
+  <si>
+    <t>cmp-32-non-special-kind-SEQ.exe</t>
+  </si>
+  <si>
+    <t>cmp-32-non-special-poly-SEQ.exe</t>
+  </si>
+  <si>
+    <t>C++/Kind</t>
+  </si>
+  <si>
+    <t>C++/Closed</t>
+  </si>
+  <si>
+    <t>C++/Open</t>
   </si>
 </sst>
 </file>
@@ -332,11 +386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="156232320"/>
-        <c:axId val="161693056"/>
+        <c:axId val="149995904"/>
+        <c:axId val="149997824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156232320"/>
+        <c:axId val="149995904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -371,7 +425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161693056"/>
+        <c:crossAx val="149997824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -379,7 +433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161693056"/>
+        <c:axId val="149997824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156232320"/>
+        <c:crossAx val="149995904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -645,11 +699,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159570176"/>
-        <c:axId val="159719808"/>
+        <c:axId val="150745856"/>
+        <c:axId val="150747776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159570176"/>
+        <c:axId val="150745856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159719808"/>
+        <c:crossAx val="150747776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -692,7 +746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159719808"/>
+        <c:axId val="150747776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.000000000000001E-2"/>
@@ -730,7 +784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159570176"/>
+        <c:crossAx val="150745856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -952,11 +1006,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159745920"/>
-        <c:axId val="159748096"/>
+        <c:axId val="150798720"/>
+        <c:axId val="150800640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159745920"/>
+        <c:axId val="150798720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +1045,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159748096"/>
+        <c:crossAx val="150800640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -999,7 +1053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159748096"/>
+        <c:axId val="150800640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1090,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159745920"/>
+        <c:crossAx val="150798720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1055,6 +1109,224 @@
       </c:layout>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11329418197725284"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.8561502624671915"/>
+          <c:h val="0.78145001611640652"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2012-04-12'!$A$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>OCaml</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Haskell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C++/Kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C++/Closed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C++/Open</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2012-04-12'!$A$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2659999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.847E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.498E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6376000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1475000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="84773888"/>
+        <c:axId val="84783872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84773888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Language/Encoding</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41724431321084871"/>
+              <c:y val="0.7142066123313533"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84783872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84783872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.11388888888888889"/>
+              <c:y val="0.28730602753603174"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84773888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1156,6 +1428,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46672</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1453,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,13 +1941,638 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" activeCellId="2" sqref="C11 D11 F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>1.7604000000000002E-2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2">
+        <v>1.6525000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>1.7614000000000001E-2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3">
+        <v>1.6525000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="B4">
+        <v>1.847E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.0198E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.7614000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.7614000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.2238000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.1465000000000001E-2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>1.7614000000000001E-2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4">
+        <v>1.6525000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="B5">
+        <v>1.847E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.498E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.6376000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.6525000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.1475000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.2089000000000001E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>1.7614000000000001E-2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5">
+        <v>1.6525000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>1.0198E-2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6">
+        <v>1.6376000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>1.0198E-2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7">
+        <v>1.6376000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8:G10" si="0">C4/$A4-1</f>
+        <v>-0.19447077409162705</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3913112164296999</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3913112164296999</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75655608214849934</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69549763033175371</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>1.004E-2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8">
+        <v>1.5446E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18325434439178512</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29352290679304915</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30529225908372837</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69628751974723557</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74478672985782013</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>1.0198E-2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9">
+        <v>1.5297E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="e">
+        <f>C6/$A6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10">
+        <v>2.2238000000000001E-2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10">
+        <v>1.5297E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <f>C4/$B4-1</f>
+        <v>-0.44786139685977255</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11:G12" si="1">D4/$B4-1</f>
+        <v>-4.6345425013535446E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.6345425013535446E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2040064970221982</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16215484569572292</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11">
+        <v>2.2238000000000001E-2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11">
+        <v>2.2089000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <f>C5/$B5-1</f>
+        <v>-0.18895506226312941</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.11337303735787752</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.10530590146182994</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16269626421223604</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19593936112615062</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12">
+        <v>2.2554000000000001E-2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12">
+        <v>2.2089000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>1.847E-2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13">
+        <v>2.2089000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14">
+        <v>1.847E-2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14">
+        <v>1.498E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="B15">
+        <v>1.847E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.498E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.6376000000000002E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.1475000000000001E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15">
+        <v>1.8550000000000001E-2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15">
+        <v>1.5139E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16">
+        <v>1.498E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17">
+        <v>2.1624000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18">
+        <v>2.1475000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <v>1.7614000000000001E-2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19">
+        <v>2.1475000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20">
+        <v>1.7614000000000001E-2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>1.848E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21">
+        <v>1.7454999999999998E-2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21">
+        <v>1.8519999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>1.7454999999999998E-2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22">
+        <v>1.8489999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>1.7454999999999998E-2</v>
+      </c>
+      <c r="P23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23">
+        <v>1.2659999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>1.7297E-2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24">
+        <v>1.2659999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>2.1624000000000001E-2</v>
+      </c>
+      <c r="P25" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25">
+        <v>1.2659999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <v>2.1465000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>2.1465000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/media/spreadsheets/OCamlComparison.xlsx
+++ b/media/spreadsheets/OCamlComparison.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>P</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>C++/Open</t>
+  </si>
+  <si>
+    <t>Visual C++ Toolkit</t>
+  </si>
+  <si>
+    <t>GCC Toolkit</t>
   </si>
 </sst>
 </file>
@@ -386,11 +392,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149995904"/>
-        <c:axId val="149997824"/>
+        <c:axId val="150941056"/>
+        <c:axId val="150947328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149995904"/>
+        <c:axId val="150941056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -425,7 +431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149997824"/>
+        <c:crossAx val="150947328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -433,7 +439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149997824"/>
+        <c:axId val="150947328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -470,7 +476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149995904"/>
+        <c:crossAx val="150941056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -699,11 +705,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150745856"/>
-        <c:axId val="150747776"/>
+        <c:axId val="150984192"/>
+        <c:axId val="150986112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150745856"/>
+        <c:axId val="150984192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150747776"/>
+        <c:crossAx val="150986112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -746,7 +752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150747776"/>
+        <c:axId val="150986112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.000000000000001E-2"/>
@@ -784,7 +790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150745856"/>
+        <c:crossAx val="150984192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1006,11 +1012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150798720"/>
-        <c:axId val="150800640"/>
+        <c:axId val="150758528"/>
+        <c:axId val="150760448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150798720"/>
+        <c:axId val="150758528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1051,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150800640"/>
+        <c:crossAx val="150760448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1053,7 +1059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150800640"/>
+        <c:axId val="150760448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1096,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150798720"/>
+        <c:crossAx val="150758528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1183,7 +1189,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'2012-04-12'!$A$14:$E$14</c:f>
+              <c:f>'2012-04-12'!$B$14:$F$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1206,7 +1212,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2012-04-12'!$A$15:$E$15</c:f>
+              <c:f>'2012-04-12'!$B$15:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1238,11 +1244,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84773888"/>
-        <c:axId val="84783872"/>
+        <c:axId val="150022784"/>
+        <c:axId val="150045440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84773888"/>
+        <c:axId val="150022784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84783872"/>
+        <c:crossAx val="150045440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1285,7 +1291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84783872"/>
+        <c:axId val="150045440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,11 +1328,240 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84773888"/>
+        <c:crossAx val="150022784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="153" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10716907261592301"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.85970625546806645"/>
+          <c:h val="0.80907079323417908"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2012-04-12'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visual C++ Toolkit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2012-04-12'!$B$14:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>OCaml</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Haskell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C++/Kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C++/Closed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C++/Open</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2012-04-12'!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2659999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.847E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.498E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6376000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1475000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2012-04-12'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GCC Toolkit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2012-04-12'!$B$14:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>OCaml</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Haskell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C++/Kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C++/Closed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C++/Open</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2012-04-12'!$B$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2659999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.847E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0198E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7614000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2238000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="109057152"/>
+        <c:axId val="109058688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="109057152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109058688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="109058688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109057152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21687532808398949"/>
+          <c:y val="5.9801326917468652E-2"/>
+          <c:w val="0.59979133858267719"/>
+          <c:h val="7.9471420239136767E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1440,16 +1675,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>46672</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>103822</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1463,6 +1698,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1941,219 +2206,215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" activeCellId="2" sqref="C11 D11 F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1.7604000000000002E-2</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1.6525000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1.7614000000000001E-2</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>24</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1.6525000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>1.2659999999999999E-2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1.847E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.0198E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.7614000000000001E-2</v>
       </c>
       <c r="E4">
         <v>1.7614000000000001E-2</v>
       </c>
       <c r="F4">
+        <v>1.7614000000000001E-2</v>
+      </c>
+      <c r="G4">
         <v>2.2238000000000001E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.1465000000000001E-2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1.7614000000000001E-2</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>24</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1.6525000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1.2659999999999999E-2</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1.847E-2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.498E-2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.6376000000000002E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.6525000000000001E-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.1475000000000001E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.2089000000000001E-2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1.7614000000000001E-2</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>25</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1.6525000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
         <v>7</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>16</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1.0198E-2</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>25</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1.6376000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1.0198E-2</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>25</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1.6376000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" ref="C8:G10" si="0">C4/$A4-1</f>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:H10" si="0">D4/$B4-1</f>
         <v>-0.19447077409162705</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3913112164296999</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
@@ -2161,72 +2422,72 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.75655608214849934</v>
+        <v>0.3913112164296999</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
+        <v>0.75655608214849934</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
         <v>0.69549763033175371</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>16</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1.004E-2</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>26</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1.5446E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0.18325434439178512</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>0.29352290679304915</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>0.30529225908372837</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>0.69628751974723557</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>0.74478672985782013</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>5</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>16</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1.0198E-2</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>26</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1.5297E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="e">
-        <f>C6/$A6-1</f>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>D6/$B6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="1" t="e">
@@ -2241,332 +2502,357 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>2.2238000000000001E-2</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>26</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1.5297E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1">
-        <f>C4/$B4-1</f>
+      <c r="D11" s="1">
+        <f>D4/$C4-1</f>
         <v>-0.44786139685977255</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" ref="D11:G12" si="1">D4/$B4-1</f>
+      <c r="E11" s="1">
+        <f t="shared" ref="E11:H12" si="1">E4/$C4-1</f>
         <v>-4.6345425013535446E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>-4.6345425013535446E-2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>0.2040064970221982</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>0.16215484569572292</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>4</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2.2238000000000001E-2</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>27</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>2.2089000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <f>C5/$B5-1</f>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <f>D5/$C5-1</f>
         <v>-0.18895506226312941</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>-0.11337303735787752</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>-0.10530590146182994</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>0.16269626421223604</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>0.19593936112615062</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>5</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2.2554000000000001E-2</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>27</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2.2089000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
         <v>7</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>18</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1.847E-2</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>27</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>2.2089000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>18</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1.847E-2</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>28</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1.498E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
         <v>1.2659999999999999E-2</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>1.847E-2</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.498E-2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.6376000000000002E-2</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.1475000000000001E-2</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>18</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1.8550000000000001E-2</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>28</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1.5139E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.847E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.0198E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.7614000000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>2.2238000000000001E-2</v>
+      </c>
+      <c r="K16" t="s">
         <v>19</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.2659999999999999E-2</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>28</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.498E-2</v>
       </c>
     </row>
-    <row r="17" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
+    <row r="17" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
         <v>19</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1.2659999999999999E-2</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>29</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>2.1624000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
+    <row r="18" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
         <v>19</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1.2659999999999999E-2</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>29</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>2.1475000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
+    <row r="19" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
         <v>21</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1.7614000000000001E-2</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>29</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2.1475000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
+    <row r="20" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
         <v>21</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1.7614000000000001E-2</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>18</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1.848E-2</v>
       </c>
     </row>
-    <row r="21" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
+    <row r="21" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
         <v>21</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1.7454999999999998E-2</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>18</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1.8519999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
+    <row r="22" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
         <v>22</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1.7454999999999998E-2</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>18</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1.8489999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J23" t="s">
+    <row r="23" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
         <v>22</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1.7454999999999998E-2</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>19</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1.2659999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J24" t="s">
+    <row r="24" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
         <v>22</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1.7297E-2</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>19</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1.2659999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J25" t="s">
+    <row r="25" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
         <v>23</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2.1624000000000001E-2</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>19</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1.2659999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
+    <row r="26" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
         <v>23</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2.1465000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
+    <row r="27" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
         <v>23</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>2.1465000000000001E-2</v>
       </c>
     </row>
